--- a/pred_ohlcv/54_23/2020-01-13 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2020-01-13 REP ohlcv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>open</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>OBV</t>
   </si>
   <si>
     <t>trade_state</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,10 +432,13 @@
         <v>10850</v>
       </c>
       <c r="F2">
+        <v>10.6913</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,10 +455,13 @@
         <v>10830</v>
       </c>
       <c r="F3">
+        <v>5.2059</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,10 +478,13 @@
         <v>10810</v>
       </c>
       <c r="F4">
+        <v>2.819</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,10 +501,13 @@
         <v>10790</v>
       </c>
       <c r="F5">
+        <v>2.8559</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,10 +524,13 @@
         <v>10780</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.745</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -526,10 +547,13 @@
         <v>10830</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>19.1272</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -546,10 +570,13 @@
         <v>10810</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,10 +593,13 @@
         <v>10800</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>69.6891</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +616,13 @@
         <v>10800</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>5.3109</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -606,10 +639,13 @@
         <v>10810</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13.5992</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -626,10 +662,13 @@
         <v>10810</v>
       </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>77.4542</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -646,10 +685,13 @@
         <v>10720</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>20.4704</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,10 +708,13 @@
         <v>10630</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>140.4577</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -686,10 +731,13 @@
         <v>10740</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -706,10 +754,13 @@
         <v>10680</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>71.1375</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +777,13 @@
         <v>10720</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>25.1313</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -746,10 +800,13 @@
         <v>10720</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.0001</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -766,10 +823,13 @@
         <v>10660</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>162.3942</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,10 +846,13 @@
         <v>10690</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>18.6738</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -806,10 +869,13 @@
         <v>10690</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -826,10 +892,13 @@
         <v>10680</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>5.8148</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -846,10 +915,13 @@
         <v>10670</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>59.9147</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -866,10 +938,13 @@
         <v>10650</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>17.9263</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -886,10 +961,13 @@
         <v>10670</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0853</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -906,10 +984,13 @@
         <v>10610</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>216.8009</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -926,10 +1007,13 @@
         <v>10600</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>80.27509999999999</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -946,10 +1030,13 @@
         <v>10610</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -966,10 +1053,13 @@
         <v>10610</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>5.8919</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -986,10 +1076,13 @@
         <v>10660</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>2.7206</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1006,10 +1099,13 @@
         <v>10670</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1026,10 +1122,13 @@
         <v>10660</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>7.2794</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1046,10 +1145,13 @@
         <v>10610</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>41.7593</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,10 +1168,13 @@
         <v>10690</v>
       </c>
       <c r="F34">
+        <v>0.0576</v>
+      </c>
+      <c r="G34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1086,10 +1191,13 @@
         <v>10690</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>3.8881</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,10 +1214,13 @@
         <v>10740</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0547</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1126,10 +1237,13 @@
         <v>10740</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.09310986964618249</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1146,10 +1260,13 @@
         <v>10740</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,10 +1283,13 @@
         <v>10700</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>36.2226</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1186,10 +1306,13 @@
         <v>10740</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1206,10 +1329,13 @@
         <v>10700</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>18.7774</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1226,10 +1352,13 @@
         <v>10690</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>14.3169</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,10 +1375,13 @@
         <v>10680</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>3.8</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1266,10 +1398,13 @@
         <v>10680</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1348</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1286,10 +1421,13 @@
         <v>10730</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.0555</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1306,10 +1444,13 @@
         <v>10700</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>2.8837</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1326,10 +1467,13 @@
         <v>10740</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1346,10 +1490,13 @@
         <v>10740</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>3.2547</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1366,10 +1513,13 @@
         <v>10710</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.1105</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1386,10 +1536,13 @@
         <v>10720</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.238</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1406,10 +1559,13 @@
         <v>10740</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>1.9303</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1426,10 +1582,13 @@
         <v>10750</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>25.9088</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1446,10 +1605,13 @@
         <v>10670</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>116.8332</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1466,10 +1628,13 @@
         <v>10740</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>89.0565</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,10 +1651,13 @@
         <v>10750</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>26.759</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1506,10 +1674,13 @@
         <v>10760</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>41.0297</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1526,10 +1697,13 @@
         <v>10760</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>9.7463</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1546,10 +1720,13 @@
         <v>10760</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>4.9742</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1566,10 +1743,13 @@
         <v>10770</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,10 +1766,13 @@
         <v>10790</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,10 +1789,13 @@
         <v>10790</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1626,10 +1812,13 @@
         <v>10780</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>44.089</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1646,10 +1835,13 @@
         <v>10790</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0712</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,10 +1858,13 @@
         <v>10790</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>26.2159</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1686,10 +1881,13 @@
         <v>10800</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>76.932</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1706,10 +1904,13 @@
         <v>10800</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>31.5529</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1726,10 +1927,13 @@
         <v>10810</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>3.7788</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1746,10 +1950,13 @@
         <v>10800</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>4.2803</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1766,10 +1973,13 @@
         <v>10810</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,10 +1996,13 @@
         <v>10810</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>5.8147</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>10750</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>39.9495</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1826,10 +2042,13 @@
         <v>10660</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>138.5232</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +2065,13 @@
         <v>10600</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>649.5242</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1866,10 +2088,13 @@
         <v>10620</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>335.0061</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1886,10 +2111,13 @@
         <v>10630</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>48.45</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1906,10 +2134,13 @@
         <v>10710</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1926,10 +2157,13 @@
         <v>10660</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>1.9112</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1946,10 +2180,13 @@
         <v>10650</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>267.3332</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1966,10 +2203,13 @@
         <v>10690</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1986,10 +2226,13 @@
         <v>10730</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2006,10 +2249,13 @@
         <v>10650</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>160.9106</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2026,10 +2272,13 @@
         <v>10650</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0001</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2046,10 +2295,13 @@
         <v>10650</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2066,10 +2318,13 @@
         <v>10690</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2086,10 +2341,13 @@
         <v>10650</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>194.9999</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2106,10 +2364,13 @@
         <v>10630</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>77.8233</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2126,10 +2387,13 @@
         <v>10570</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>169.3473</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2146,10 +2410,13 @@
         <v>10630</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>3.057</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2433,13 @@
         <v>10640</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2186,10 +2456,13 @@
         <v>10640</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>8.570499999999999</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2206,10 +2479,13 @@
         <v>10640</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>6.4088</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2226,10 +2502,13 @@
         <v>10640</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>33.6721</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2246,10 +2525,13 @@
         <v>10640</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>3.09</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2266,10 +2548,13 @@
         <v>10610</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>9.309699999999999</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,10 +2571,13 @@
         <v>10610</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.9304</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2306,10 +2594,13 @@
         <v>10640</v>
       </c>
       <c r="F96">
+        <v>70.2902</v>
+      </c>
+      <c r="G96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,10 +2617,13 @@
         <v>10630</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2346,10 +2640,13 @@
         <v>10640</v>
       </c>
       <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2366,10 +2663,13 @@
         <v>10640</v>
       </c>
       <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2386,10 +2686,13 @@
         <v>10600</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>76.2102</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2406,10 +2709,13 @@
         <v>10600</v>
       </c>
       <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>57.1577</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2426,10 +2732,13 @@
         <v>10650</v>
       </c>
       <c r="F102">
+        <v>6.1694</v>
+      </c>
+      <c r="G102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2446,10 +2755,13 @@
         <v>10650</v>
       </c>
       <c r="F103">
+        <v>92.0205</v>
+      </c>
+      <c r="G103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2466,10 +2778,13 @@
         <v>10680</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>4.5241</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,10 +2801,13 @@
         <v>10710</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.0547</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2506,10 +2824,13 @@
         <v>10720</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>46.013</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2526,10 +2847,13 @@
         <v>10720</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>124.7256</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2546,10 +2870,13 @@
         <v>10740</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2566,10 +2893,13 @@
         <v>10740</v>
       </c>
       <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>137.3943</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2586,10 +2916,13 @@
         <v>10720</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>80.89960000000001</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2606,10 +2939,13 @@
         <v>10780</v>
       </c>
       <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>167.7797</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2626,10 +2962,13 @@
         <v>10790</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>50.2872</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2646,10 +2985,13 @@
         <v>10790</v>
       </c>
       <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>45.2585</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2666,10 +3008,13 @@
         <v>10790</v>
       </c>
       <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>40.7326</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2686,10 +3031,13 @@
         <v>10800</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2706,10 +3054,13 @@
         <v>10790</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>0.3512</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2726,10 +3077,13 @@
         <v>10770</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>1214.7022</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2746,10 +3100,13 @@
         <v>10760</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>29.7958</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2766,10 +3123,13 @@
         <v>10850</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.05</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2786,10 +3146,13 @@
         <v>10790</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>3.8558</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,10 +3169,13 @@
         <v>10850</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2826,10 +3192,13 @@
         <v>10740</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>753.4642</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2846,10 +3215,13 @@
         <v>10730</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>2.838</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2866,10 +3238,13 @@
         <v>10740</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>4.7304</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2886,10 +3261,13 @@
         <v>10720</v>
       </c>
       <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2906,10 +3284,13 @@
         <v>10720</v>
       </c>
       <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2926,10 +3307,13 @@
         <v>10720</v>
       </c>
       <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>1.6263</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2946,10 +3330,13 @@
         <v>10700</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>4.2109</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2966,10 +3353,13 @@
         <v>10610</v>
       </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>137.7455</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2986,10 +3376,13 @@
         <v>10660</v>
       </c>
       <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>11.1155</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3006,10 +3399,13 @@
         <v>10700</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>0.8483000000000001</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3026,10 +3422,13 @@
         <v>10710</v>
       </c>
       <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>0.3</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3046,10 +3445,13 @@
         <v>10710</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>185.9283</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3066,10 +3468,13 @@
         <v>10740</v>
       </c>
       <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>0.047</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3086,10 +3491,13 @@
         <v>10640</v>
       </c>
       <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3106,6 +3514,9 @@
         <v>10700</v>
       </c>
       <c r="F136">
+        <v>0.277</v>
+      </c>
+      <c r="G136">
         <v>0</v>
       </c>
     </row>
